--- a/biology/Médecine/Xavier_Azalbert/Xavier_Azalbert.xlsx
+++ b/biology/Médecine/Xavier_Azalbert/Xavier_Azalbert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Xavier Azalbert, né le 23 octobre 1964 à Revel (Haute-Garonne), est un entrepreneur français. D'abord employé de grandes entreprises, il se met à son compte puis prend en 2014 la tête du journal France-Soir, qu'il transforme en un site d'actualités, FranceSoir. Le média s'oriente alors vers la publication de fausses informations, beaucoup relevant du complotisme. Il diffuse par ailleurs de la désinformation sur plusieurs sujets.
 </t>
@@ -513,14 +525,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse et début de carrière
-Xavier Azalbert naît le 23 octobre 1964[1] à Revel, en Haute-Garonne[2],[3].
-Il fait des études de mathématiques et d'économie et sort diplômé de l'université de Toulouse, avec une spécialisation en économétrie. Il se fait embaucher par le cabinet de conseil McKinsey[4], avant de rejoindre Fidelity Investments, multinationale américaine spécialisée dans la gestion d'actifs[5]. Il s'oriente ensuite vers le secteur de la banque en ligne, mais aussi du BTP et de la dépollution des sols (notamment avec une entreprise majeure du secteur, Valgo), en créant ou reprenant des entreprises[6]. Il est notamment le dirigeant de la société Mutualize, qui rachète en 2016 la néo-banque Morning[7].
-Amateur de cyclisme et de triathlon, il voyage au Brésil ou en Afrique du Sud pour participer à des courses[5].
-Prise en main de France-Soir
-En 2014, Xavier Azalbert prend le contrôle du journal France-Soir, issu de la Résistance et fondé en 1944. La prise de contrôle se fait aux dépens de Philippe Mendil, acheteur du média deux ans plus tôt et qui doit devenir l'associé d'Azalbert. Celui-ci estime que sa « confiance a été trahie »[5].
-Initialement, Azalbert n'impose pas de changement de la ligne éditoriale, FranceSoir se contentant de reprendre des dépêches d'agences de presse comme l'AFP. Il est même apprécié par les employés pour sa capacité à attirer des investisseurs et ses talents de négociateur, et son esprit « crédule face aux fausses informations » fait sourire en interne[5]. Il utilise toutefois le site pour faire la promotion de ses performances sportives et de ses entreprises[5].
-Mais en 2019, les journalistes se mettent en grève[4], afin de réclamer le respect de la convention collective des journalistes et la création d'une mutuelle d'entreprise[5]. Les collaborateurs du journal protestent également contre ce qui est décrit par un ancien employé comme « un modèle à base de jeux concours et de sponsoring de rubriques »[4]. Les relations avec Xavier Azalbert se tendent ; celui-ci exige désormais de relire chaque article avant publication et met en place « un climat de méfiance et de surveillance généralisée ». Après six semaines de grève, les quatre derniers employés sont licenciés « pour motif économique ». Ils sont remplacés par des contributeurs dont l'identité reste floue[5]. C'est le début d'un « virage éditorial », selon l'avocat des journalistes, amorcé sous l'impulsion d'Azalbert, qui réoriente le média vers la désinformation et le complotisme[4].
+          <t>Jeunesse et début de carrière</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Xavier Azalbert naît le 23 octobre 1964 à Revel, en Haute-Garonne,.
+Il fait des études de mathématiques et d'économie et sort diplômé de l'université de Toulouse, avec une spécialisation en économétrie. Il se fait embaucher par le cabinet de conseil McKinsey, avant de rejoindre Fidelity Investments, multinationale américaine spécialisée dans la gestion d'actifs. Il s'oriente ensuite vers le secteur de la banque en ligne, mais aussi du BTP et de la dépollution des sols (notamment avec une entreprise majeure du secteur, Valgo), en créant ou reprenant des entreprises. Il est notamment le dirigeant de la société Mutualize, qui rachète en 2016 la néo-banque Morning.
+Amateur de cyclisme et de triathlon, il voyage au Brésil ou en Afrique du Sud pour participer à des courses.
 </t>
         </is>
       </c>
@@ -546,25 +559,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Prises de position et désinformation</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sur la pandémie de Covid-19
-En 2020, il participe au documentaire conspirationniste Hold-up sur la pandémie de Covid-19[5]. Sur son site FranceSoir, Azalbert donne la parole à des vidéastes connus pour leur désinformation sur le sujet, notamment Silvano Trotta[4], et défend le microbiologiste controversé Didier Raoult[6]. Il intervient régulièrement sur CNews et Sud Radio, deux médias pointés pour la place laissée aux théories conspirationnistes ou d'extrême droite[5]. Il est qualifié par Le Parisien de « figure du complotisme français »[5].
-Le site FranceSoir est lui épinglé à plusieurs reprises pour des textes conspirationnistes, notamment par Conspiracy Watch qui le décrit comme ayant « basculé dans le complotisme le plus échevelé »[4].
-En septembre 2020, Azalbert participe à la création de BonSens avec de nombreuses personnalités de la sphère antivaccins[5], une association qui se donne pour but, comme inscrit dans ses statuts, de veiller « à ce que toute activité et tout projet médical, de transition énergétique ou environnementale quels qu’ils soient tant à l’échelon local […] que national s’exerce dans le respect des Français, de la Constitution »[8].
-Invitation de Peter Ford
-En novembre 2021, Xavier Azalbert invite Peter Ford, ancien ambassadeur britannique et acteur de la propagande du régime de Bachar-el-Assad via le lobby British Syrian Society (qu'il co-dirige), ainsi que Fawaz Akhras, père d'Asma el-Assad, l'épouse du dirigeant[9], pour un entretien, qui montre la « convergence des théories complotistes en faveur de Vladimir Poutine ». Azalbert fait ainsi un parallèle, dont « le rapport ne semble pas évident » pour Élie Guckert, entre la gestion de la crise sanitaire et la politique étrangère de l'OTAN au Moyen-Orient[10], tandis que Peter Ford fait le lien avec la politique de lutte contre le réchauffement climatique qu'il accuse de « [catastrophiser] sur le climat », à l'encontre du consensus scientifique sur le sujet. Il se félicite par ailleurs d'avoir « énormément donné la parole à des étrangers de manière à pouvoir ramener leurs visions des choses »[9].
-Azalbert est également présent lors de la fondation du Mouvement international russophile, dont le premier congrès a lieu en mars 2023. Il participe par la suite à une réunion du Dialogue franco-russe aux côtés de Thierry Mariani, député européen membre du Rassemblement national et président du lobby pro-Kremlin[10].
-Attaque contre le site Fact &amp; Furious
-En novembre 2022, Libération révèle que Xavier Azalbert et Idriss Aberkane ont déclenché une offensive contre le site « Fact &amp; Furious », et son fondateur, Antoine Daoust, allant jusqu'à tenter de faire chanter ce dernier pour racheter son site, lui promettant l’arrêt des « procédures » à son encontre dans le cadre de son divorce et d'accusations de violences conjugales de son ex-conjointe[11]. Antoine Daoust est ensuite victime de harcèlement et de menaces de mort. L'affaire survient au moment où la Commission paritaire des publications et des agences de presse envisage de retirer son agrément de service de presse en ligne à FranceSoir, alors que « Fact &amp; Furious » en bénéficie toujours, ce qui aurait pu permettre au site de continuer à en bénéficier[12]. Azalbert assure par ailleurs avoir l'intention de publier une « enquête » sur Antoine Daoust et milite en faveur d'« « assises du fact checking voire des médias » accompagnées d’« une véritable enquête judiciaire » et d’une « enquête parlementaire et sénatoriale » »[13].
-Xavier Azalbert achète finalement le domaine internet FactandSerious.fr après la perte d'agrément CPPAP de FranceSoir ; sa première publication vise Rudy Reichstadt, le fondateur de ConspiracyWatch, victime de propos antisémites[14],[12].
-Cyberharcèlement
-Xavier Azalbert a été l’administrateur d'un groupe de cyberharcèlement baptisé « groupe CIA ». Selon un ancien membre du collectif, celui-ci est chargé de réaliser une contre-communication intensive et violente à toute critique de Didier Raoult. Cette boucle de messagerie privée sur Twitter est gérée par Xavier Azalbert[15]. Elle réunit Éric Chabrière, le porte-parole de l'IHU et une trentaine de comptes actifs. Le « groupe CIA » injurie et pratique le doxxing envers les internautes qui émettent des doutes sur la méthodologie de l'IHU ou du professeur Didier Raoult [16],[17]. 
-Depuis novembre 2022, Xavier Azalbert a entamé une campagne de harcèlement visant Antoine Daoust, ancien dirigeant de Fact &amp; Furious après que ce dernier lui refuse la cession de son site[18]. Plus de 150 tweets hostiles à l'ancien fact-checkeur et sa compagne ont été recensées selon L'Express[18]. Par ailleurs, des articles divulguant des informations privées ont été diffusés sur le  site de France-soir. Ce harcèlement aurait conduit Antoine Daoust à une tentative de suicide en décembre 2023. L'ancien dirigeant Fact &amp; Furious a déposé deux plaintes contre Xavier Azalbert[18],[19]. 
-Début 2024, il fait l'objet d'une plainte de cyberharcèlement déposée par le vidéaste Thomas C Durand[20].
+          <t>Prise en main de France-Soir</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2014, Xavier Azalbert prend le contrôle du journal France-Soir, issu de la Résistance et fondé en 1944. La prise de contrôle se fait aux dépens de Philippe Mendil, acheteur du média deux ans plus tôt et qui doit devenir l'associé d'Azalbert. Celui-ci estime que sa « confiance a été trahie ».
+Initialement, Azalbert n'impose pas de changement de la ligne éditoriale, FranceSoir se contentant de reprendre des dépêches d'agences de presse comme l'AFP. Il est même apprécié par les employés pour sa capacité à attirer des investisseurs et ses talents de négociateur, et son esprit « crédule face aux fausses informations » fait sourire en interne. Il utilise toutefois le site pour faire la promotion de ses performances sportives et de ses entreprises.
+Mais en 2019, les journalistes se mettent en grève, afin de réclamer le respect de la convention collective des journalistes et la création d'une mutuelle d'entreprise. Les collaborateurs du journal protestent également contre ce qui est décrit par un ancien employé comme « un modèle à base de jeux concours et de sponsoring de rubriques ». Les relations avec Xavier Azalbert se tendent ; celui-ci exige désormais de relire chaque article avant publication et met en place « un climat de méfiance et de surveillance généralisée ». Après six semaines de grève, les quatre derniers employés sont licenciés « pour motif économique ». Ils sont remplacés par des contributeurs dont l'identité reste floue. C'est le début d'un « virage éditorial », selon l'avocat des journalistes, amorcé sous l'impulsion d'Azalbert, qui réoriente le média vers la désinformation et le complotisme.
 </t>
         </is>
       </c>
@@ -590,16 +598,173 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Prises de position et désinformation</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sur la pandémie de Covid-19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2020, il participe au documentaire conspirationniste Hold-up sur la pandémie de Covid-19. Sur son site FranceSoir, Azalbert donne la parole à des vidéastes connus pour leur désinformation sur le sujet, notamment Silvano Trotta, et défend le microbiologiste controversé Didier Raoult. Il intervient régulièrement sur CNews et Sud Radio, deux médias pointés pour la place laissée aux théories conspirationnistes ou d'extrême droite. Il est qualifié par Le Parisien de « figure du complotisme français ».
+Le site FranceSoir est lui épinglé à plusieurs reprises pour des textes conspirationnistes, notamment par Conspiracy Watch qui le décrit comme ayant « basculé dans le complotisme le plus échevelé ».
+En septembre 2020, Azalbert participe à la création de BonSens avec de nombreuses personnalités de la sphère antivaccins, une association qui se donne pour but, comme inscrit dans ses statuts, de veiller « à ce que toute activité et tout projet médical, de transition énergétique ou environnementale quels qu’ils soient tant à l’échelon local […] que national s’exerce dans le respect des Français, de la Constitution ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Xavier_Azalbert</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xavier_Azalbert</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Prises de position et désinformation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Invitation de Peter Ford</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En novembre 2021, Xavier Azalbert invite Peter Ford, ancien ambassadeur britannique et acteur de la propagande du régime de Bachar-el-Assad via le lobby British Syrian Society (qu'il co-dirige), ainsi que Fawaz Akhras, père d'Asma el-Assad, l'épouse du dirigeant, pour un entretien, qui montre la « convergence des théories complotistes en faveur de Vladimir Poutine ». Azalbert fait ainsi un parallèle, dont « le rapport ne semble pas évident » pour Élie Guckert, entre la gestion de la crise sanitaire et la politique étrangère de l'OTAN au Moyen-Orient, tandis que Peter Ford fait le lien avec la politique de lutte contre le réchauffement climatique qu'il accuse de « [catastrophiser] sur le climat », à l'encontre du consensus scientifique sur le sujet. Il se félicite par ailleurs d'avoir « énormément donné la parole à des étrangers de manière à pouvoir ramener leurs visions des choses ».
+Azalbert est également présent lors de la fondation du Mouvement international russophile, dont le premier congrès a lieu en mars 2023. Il participe par la suite à une réunion du Dialogue franco-russe aux côtés de Thierry Mariani, député européen membre du Rassemblement national et président du lobby pro-Kremlin.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Xavier_Azalbert</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xavier_Azalbert</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Prises de position et désinformation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Attaque contre le site Fact &amp; Furious</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+En novembre 2022, Libération révèle que Xavier Azalbert et Idriss Aberkane ont déclenché une offensive contre le site « Fact &amp; Furious », et son fondateur, Antoine Daoust, allant jusqu'à tenter de faire chanter ce dernier pour racheter son site, lui promettant l’arrêt des « procédures » à son encontre dans le cadre de son divorce et d'accusations de violences conjugales de son ex-conjointe. Antoine Daoust est ensuite victime de harcèlement et de menaces de mort. L'affaire survient au moment où la Commission paritaire des publications et des agences de presse envisage de retirer son agrément de service de presse en ligne à FranceSoir, alors que « Fact &amp; Furious » en bénéficie toujours, ce qui aurait pu permettre au site de continuer à en bénéficier. Azalbert assure par ailleurs avoir l'intention de publier une « enquête » sur Antoine Daoust et milite en faveur d'« « assises du fact checking voire des médias » accompagnées d’« une véritable enquête judiciaire » et d’une « enquête parlementaire et sénatoriale » ».
+Xavier Azalbert achète finalement le domaine internet FactandSerious.fr après la perte d'agrément CPPAP de FranceSoir ; sa première publication vise Rudy Reichstadt, le fondateur de ConspiracyWatch, victime de propos antisémites,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Xavier_Azalbert</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xavier_Azalbert</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Prises de position et désinformation</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Cyberharcèlement</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Xavier Azalbert a été l’administrateur d'un groupe de cyberharcèlement baptisé « groupe CIA ». Selon un ancien membre du collectif, celui-ci est chargé de réaliser une contre-communication intensive et violente à toute critique de Didier Raoult. Cette boucle de messagerie privée sur Twitter est gérée par Xavier Azalbert. Elle réunit Éric Chabrière, le porte-parole de l'IHU et une trentaine de comptes actifs. Le « groupe CIA » injurie et pratique le doxxing envers les internautes qui émettent des doutes sur la méthodologie de l'IHU ou du professeur Didier Raoult ,. 
+Depuis novembre 2022, Xavier Azalbert a entamé une campagne de harcèlement visant Antoine Daoust, ancien dirigeant de Fact &amp; Furious après que ce dernier lui refuse la cession de son site. Plus de 150 tweets hostiles à l'ancien fact-checkeur et sa compagne ont été recensées selon L'Express. Par ailleurs, des articles divulguant des informations privées ont été diffusés sur le  site de France-soir. Ce harcèlement aurait conduit Antoine Daoust à une tentative de suicide en décembre 2023. L'ancien dirigeant Fact &amp; Furious a déposé deux plaintes contre Xavier Azalbert,. 
+Début 2024, il fait l'objet d'une plainte de cyberharcèlement déposée par le vidéaste Thomas C Durand.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Xavier_Azalbert</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xavier_Azalbert</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Affaires judiciaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">En juin 2020, la cour d'appel de Paris donne raison à Philippe Mendil, l'ancien associé d'Azalbert chez FranceSoir, déclarant que « l'entrepreneur [a] été évincé sans « juste motif » », et condamne Xavier Azalbert à 50 000 € de dommages et intérêts.
-En 2021, Xavier Azalbert attaque le médecin Mathias Wargon en diffamation, pour des propos qu'il aurait tenus le 2 septembre 2021, dans l'émission Polonews, sur BFM TV[21]. Ce jour-là, Xavier Azalbert est invité pour défendre une tribune publiée sur FranceSoir, qui défend Didier Raoult et attaque la gestion de la pandémie de Covid-19 par la France, ainsi que plusieurs médecins et organismes de santé publique français. Elle se termine selon des médecins par une référence à la guillotine, ce que nie Xavier Azalbert[21]. Mathias Wargon critique de manière virulente la tribune au cours de la séquence diffusée à la télévision. Xavier Azalbert dépose plainte mais le tribunal de Paris le déboute, estimant que l'émission constitue une « critique virulente, mais légitime », que les propos de Mathias Wargon « ne visaient pas directement Xavier Azalbert, [ou relevaient] d’une « interprétation personnelle et subjective » de la tribune » et qu'ils ne sont pas diffamatoires[21].
-En 2021, un internaute sur le réseau social Twitter révèle l'existence d'un groupe de désinformation nommé « groupe CIA » qui sévissait pendant la pandémie. Des captures d'écran sont alors partagées par cet internaute, montrant entre autres Xavier Azalbert comme faisant partie de ce groupe de désinformation[16],[15].
-Le 6 octobre 2023, il saisit la Cour de justice de la République, avec Christian Perronne, contre le ministre de la Santé Aurélien Rousseau, qui a déclaré trois jours plus tôt : « on a un vaccin [pour lequel] on a maintenant trois ans de recul, on sait qu'on n'a pas d'effets secondaires, et donc il faut y aller ». Il l'accuse de « propos fallacieux » ; la plainte est classée sans suite et le ministre réaffirme l'efficacité du vaccin[22].
-En janvier 2024, Xavier Azalbert est assigné en justice avec une citation directe pour des faites de diffamation envers l'ancien fact-checker Antoine Daoust [23]. Le directeur de la publication de FranceSoir l'accuse publiquement depuis 2022 de trafic de faux tests PCR et d'ordonnances falsifiées. Il fait actuellement l'objet de plusieurs plaintes pénales déposées par Antoine Daoust et sa compagne [24]. 
+En 2021, Xavier Azalbert attaque le médecin Mathias Wargon en diffamation, pour des propos qu'il aurait tenus le 2 septembre 2021, dans l'émission Polonews, sur BFM TV. Ce jour-là, Xavier Azalbert est invité pour défendre une tribune publiée sur FranceSoir, qui défend Didier Raoult et attaque la gestion de la pandémie de Covid-19 par la France, ainsi que plusieurs médecins et organismes de santé publique français. Elle se termine selon des médecins par une référence à la guillotine, ce que nie Xavier Azalbert. Mathias Wargon critique de manière virulente la tribune au cours de la séquence diffusée à la télévision. Xavier Azalbert dépose plainte mais le tribunal de Paris le déboute, estimant que l'émission constitue une « critique virulente, mais légitime », que les propos de Mathias Wargon « ne visaient pas directement Xavier Azalbert, [ou relevaient] d’une « interprétation personnelle et subjective » de la tribune » et qu'ils ne sont pas diffamatoires.
+En 2021, un internaute sur le réseau social Twitter révèle l'existence d'un groupe de désinformation nommé « groupe CIA » qui sévissait pendant la pandémie. Des captures d'écran sont alors partagées par cet internaute, montrant entre autres Xavier Azalbert comme faisant partie de ce groupe de désinformation,.
+Le 6 octobre 2023, il saisit la Cour de justice de la République, avec Christian Perronne, contre le ministre de la Santé Aurélien Rousseau, qui a déclaré trois jours plus tôt : « on a un vaccin [pour lequel] on a maintenant trois ans de recul, on sait qu'on n'a pas d'effets secondaires, et donc il faut y aller ». Il l'accuse de « propos fallacieux » ; la plainte est classée sans suite et le ministre réaffirme l'efficacité du vaccin.
+En janvier 2024, Xavier Azalbert est assigné en justice avec une citation directe pour des faites de diffamation envers l'ancien fact-checker Antoine Daoust . Le directeur de la publication de FranceSoir l'accuse publiquement depuis 2022 de trafic de faux tests PCR et d'ordonnances falsifiées. Il fait actuellement l'objet de plusieurs plaintes pénales déposées par Antoine Daoust et sa compagne . 
 </t>
         </is>
       </c>
